--- a/biology/Botanique/Anémone_agréable/Anémone_agréable.xlsx
+++ b/biology/Botanique/Anémone_agréable/Anémone_agréable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An%C3%A9mone_agr%C3%A9able</t>
+          <t>Anémone_agréable</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anemone blanda
 L'anémone de Grèce (Anemone blanda) est une espèce de plantes à fleurs de la famille des Ranunculaceae. C'est une plante herbacée vivace dont l'aire de répartition s'étend des Balkans au Caucase et à la Syrie.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>An%C3%A9mone_agr%C3%A9able</t>
+          <t>Anémone_agréable</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vivace tubéreuse herbacée, l'anémone de Grèce peut atteindre 10 à 15 cm de hauteur. Elle est appréciée pour ses fleurs ressemblant à des marguerites sur un feuillage semblable à une fougère. Les fleurs apparaissent au début du printemps, une période où peu d'autres sont en fleurs. La plante peut aussi facilement se naturaliser. Les fleurs sont d'un bleu violet intense, mais sont également disponibles dans des tons de rose et de blanc.
 Les feuilles vertes composées sont finement divisées et disposées en un motif verticillé et alterné. Elles sont profondément découpées et poussent en disposition basale. Les bords des limbes des feuilles sont dentés.
